--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/HAWAII_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/HAWAII_2024.xlsx
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C31">
@@ -825,7 +825,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C33">
@@ -926,7 +926,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C40">
@@ -1009,7 +1009,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C46">
@@ -1131,7 +1131,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C55">
@@ -1183,7 +1183,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C59">
@@ -1196,7 +1196,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C60">
@@ -1235,7 +1235,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C63">
@@ -1261,7 +1261,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1279,7 +1279,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C66">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C75">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C79">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C81">
@@ -1507,7 +1507,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C82">
@@ -1590,7 +1590,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C88">
@@ -1655,7 +1655,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C93">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C95">
@@ -1787,7 +1787,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C107">
@@ -1906,7 +1906,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110">

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/HAWAII_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/HAWAII_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ejutla</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Mexticacán</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Totatiche</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Cojumatlán De Régules</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1443,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -1531,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San Sebastián Río Hondo</t>
@@ -1544,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1557,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1588,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1601,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Naupan</t>
@@ -1614,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1627,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1653,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -1666,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1697,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1728,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1759,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1772,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1803,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1816,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1847,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1878,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Villa García</t>
@@ -1891,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
